--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/D/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/D/20/seed4/result_data_RandomForest.xlsx
@@ -564,7 +564,7 @@
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.980599999999995</v>
+        <v>-8.084399999999993</v>
       </c>
     </row>
     <row r="10">
@@ -620,7 +620,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.094000000000001</v>
+        <v>-8.063999999999998</v>
       </c>
     </row>
     <row r="14">
@@ -662,7 +662,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.025699999999999</v>
+        <v>-8.146099999999997</v>
       </c>
     </row>
     <row r="17">
@@ -690,7 +690,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.754099999999999</v>
+        <v>-8.551600000000002</v>
       </c>
     </row>
     <row r="19">
@@ -718,7 +718,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.114800000000002</v>
+        <v>-7.074800000000003</v>
       </c>
     </row>
     <row r="21">
@@ -802,7 +802,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.8751</v>
+        <v>-7.663499999999999</v>
       </c>
     </row>
     <row r="27">
@@ -816,7 +816,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-7.887900000000002</v>
+        <v>-7.801599999999999</v>
       </c>
     </row>
     <row r="28">
@@ -844,7 +844,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.373100000000002</v>
+        <v>-7.318899999999998</v>
       </c>
     </row>
     <row r="30">
@@ -928,7 +928,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.477300000000008</v>
+        <v>-7.250200000000006</v>
       </c>
     </row>
     <row r="36">
@@ -942,7 +942,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.723899999999995</v>
+        <v>-7.752299999999998</v>
       </c>
     </row>
     <row r="37">
@@ -1068,7 +1068,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.1612</v>
+        <v>-7.090299999999997</v>
       </c>
     </row>
     <row r="46">
@@ -1208,7 +1208,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.974800000000002</v>
+        <v>-8.826299999999998</v>
       </c>
     </row>
     <row r="56">
@@ -1236,7 +1236,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.447100000000001</v>
+        <v>-8.310699999999999</v>
       </c>
     </row>
     <row r="58">
@@ -1404,7 +1404,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.427399999999995</v>
+        <v>-7.521899999999996</v>
       </c>
     </row>
     <row r="70">
@@ -1502,7 +1502,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.5937</v>
+        <v>-7.4691</v>
       </c>
     </row>
     <row r="77">
@@ -1530,7 +1530,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.483300000000003</v>
+        <v>-7.293800000000001</v>
       </c>
     </row>
     <row r="79">
@@ -1586,7 +1586,7 @@
         <v>-14.08</v>
       </c>
       <c r="D82" t="n">
-        <v>-8.249400000000003</v>
+        <v>-8.368700000000004</v>
       </c>
     </row>
     <row r="83">
@@ -1600,7 +1600,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.9879</v>
+        <v>-8.9658</v>
       </c>
     </row>
     <row r="84">
@@ -1740,7 +1740,7 @@
         <v>-10.09</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.930799999999992</v>
+        <v>-6.996399999999992</v>
       </c>
     </row>
     <row r="94">
@@ -1796,7 +1796,7 @@
         <v>-10.47</v>
       </c>
       <c r="D97" t="n">
-        <v>-7.756599999999999</v>
+        <v>-7.693699999999999</v>
       </c>
     </row>
     <row r="98">
